--- a/eigo.xlsx
+++ b/eigo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
   <si>
     <t>問題</t>
     <rPh sb="0" eb="2">
@@ -344,6 +344,10 @@
   </si>
   <si>
     <t>wander</t>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -681,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -824,7 +828,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>12</v>

--- a/eigo.xlsx
+++ b/eigo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="13485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="13485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="106">
   <si>
     <t>問題</t>
     <rPh sb="0" eb="2">
@@ -347,6 +347,10 @@
   </si>
   <si>
     <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -685,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -709,8 +713,8 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -720,8 +724,8 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -731,8 +735,8 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -742,8 +746,8 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -753,8 +757,8 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="C6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -764,8 +768,8 @@
       <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -775,8 +779,8 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>7</v>
+      <c r="C8" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -786,8 +790,8 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>8</v>
+      <c r="C9" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -797,8 +801,8 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>9</v>
+      <c r="C10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -808,8 +812,8 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11">
-        <v>10</v>
+      <c r="C11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -819,8 +823,8 @@
       <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C12">
-        <v>11</v>
+      <c r="C12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -830,8 +834,8 @@
       <c r="B13" t="s">
         <v>104</v>
       </c>
-      <c r="C13">
-        <v>12</v>
+      <c r="C13" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -841,8 +845,8 @@
       <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C14">
-        <v>13</v>
+      <c r="C14" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -852,8 +856,8 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15">
-        <v>14</v>
+      <c r="C15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -863,8 +867,8 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>15</v>
+      <c r="C16" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -874,8 +878,8 @@
       <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C17">
-        <v>16</v>
+      <c r="C17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -885,8 +889,8 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
-        <v>17</v>
+      <c r="C18" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -896,8 +900,8 @@
       <c r="B19" t="s">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>18</v>
+      <c r="C19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -907,8 +911,8 @@
       <c r="B20" t="s">
         <v>2</v>
       </c>
-      <c r="C20">
-        <v>19</v>
+      <c r="C20" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -918,8 +922,8 @@
       <c r="B21" t="s">
         <v>2</v>
       </c>
-      <c r="C21">
-        <v>20</v>
+      <c r="C21" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -929,8 +933,8 @@
       <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>21</v>
+      <c r="C22" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -940,8 +944,8 @@
       <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23">
-        <v>22</v>
+      <c r="C23" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -951,8 +955,8 @@
       <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24">
-        <v>23</v>
+      <c r="C24" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -962,8 +966,8 @@
       <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25">
-        <v>24</v>
+      <c r="C25" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -973,8 +977,8 @@
       <c r="B26" t="s">
         <v>2</v>
       </c>
-      <c r="C26">
-        <v>25</v>
+      <c r="C26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
@@ -984,8 +988,8 @@
       <c r="B27" t="s">
         <v>2</v>
       </c>
-      <c r="C27">
-        <v>26</v>
+      <c r="C27" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
@@ -995,8 +999,8 @@
       <c r="B28" t="s">
         <v>2</v>
       </c>
-      <c r="C28">
-        <v>27</v>
+      <c r="C28" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
@@ -1006,8 +1010,8 @@
       <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>28</v>
+      <c r="C29" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
@@ -1017,8 +1021,8 @@
       <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C30">
-        <v>29</v>
+      <c r="C30" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
@@ -1028,8 +1032,8 @@
       <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C31">
-        <v>30</v>
+      <c r="C31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
@@ -1039,8 +1043,8 @@
       <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C32">
-        <v>31</v>
+      <c r="C32" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
@@ -1050,8 +1054,8 @@
       <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C33">
-        <v>32</v>
+      <c r="C33" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
@@ -1061,8 +1065,8 @@
       <c r="B34" t="s">
         <v>2</v>
       </c>
-      <c r="C34">
-        <v>33</v>
+      <c r="C34" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
@@ -1072,8 +1076,8 @@
       <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="C35">
-        <v>34</v>
+      <c r="C35" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
@@ -1083,8 +1087,8 @@
       <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36">
-        <v>35</v>
+      <c r="C36" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.4">
@@ -1094,8 +1098,8 @@
       <c r="B37" t="s">
         <v>2</v>
       </c>
-      <c r="C37">
-        <v>36</v>
+      <c r="C37" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.4">
@@ -1105,8 +1109,8 @@
       <c r="B38" t="s">
         <v>2</v>
       </c>
-      <c r="C38">
-        <v>37</v>
+      <c r="C38" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.4">
@@ -1116,8 +1120,8 @@
       <c r="B39" t="s">
         <v>2</v>
       </c>
-      <c r="C39">
-        <v>38</v>
+      <c r="C39" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.4">
@@ -1127,8 +1131,8 @@
       <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="C40">
-        <v>39</v>
+      <c r="C40" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.4">
@@ -1138,8 +1142,8 @@
       <c r="B41" t="s">
         <v>2</v>
       </c>
-      <c r="C41">
-        <v>40</v>
+      <c r="C41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.4">
@@ -1149,8 +1153,8 @@
       <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="C42">
-        <v>41</v>
+      <c r="C42" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.4">
@@ -1160,8 +1164,8 @@
       <c r="B43" t="s">
         <v>2</v>
       </c>
-      <c r="C43">
-        <v>42</v>
+      <c r="C43" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.4">
@@ -1171,8 +1175,8 @@
       <c r="B44" t="s">
         <v>2</v>
       </c>
-      <c r="C44">
-        <v>43</v>
+      <c r="C44" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.4">
@@ -1182,8 +1186,8 @@
       <c r="B45" t="s">
         <v>2</v>
       </c>
-      <c r="C45">
-        <v>44</v>
+      <c r="C45" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.4">
@@ -1193,8 +1197,8 @@
       <c r="B46" t="s">
         <v>2</v>
       </c>
-      <c r="C46">
-        <v>45</v>
+      <c r="C46" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.4">
@@ -1204,8 +1208,8 @@
       <c r="B47" t="s">
         <v>2</v>
       </c>
-      <c r="C47">
-        <v>46</v>
+      <c r="C47" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.4">
@@ -1215,8 +1219,8 @@
       <c r="B48" t="s">
         <v>2</v>
       </c>
-      <c r="C48">
-        <v>47</v>
+      <c r="C48" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.4">
@@ -1226,8 +1230,8 @@
       <c r="B49" t="s">
         <v>2</v>
       </c>
-      <c r="C49">
-        <v>48</v>
+      <c r="C49" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.4">
@@ -1237,8 +1241,8 @@
       <c r="B50" t="s">
         <v>2</v>
       </c>
-      <c r="C50">
-        <v>49</v>
+      <c r="C50" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.4">
@@ -1248,8 +1252,8 @@
       <c r="B51" t="s">
         <v>2</v>
       </c>
-      <c r="C51">
-        <v>50</v>
+      <c r="C51" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.4">
@@ -1259,8 +1263,8 @@
       <c r="B52" t="s">
         <v>2</v>
       </c>
-      <c r="C52">
-        <v>51</v>
+      <c r="C52" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.4">
@@ -1270,8 +1274,8 @@
       <c r="B53" t="s">
         <v>2</v>
       </c>
-      <c r="C53">
-        <v>52</v>
+      <c r="C53" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.4">
@@ -1281,8 +1285,8 @@
       <c r="B54" t="s">
         <v>2</v>
       </c>
-      <c r="C54">
-        <v>53</v>
+      <c r="C54" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.4">
@@ -1292,8 +1296,8 @@
       <c r="B55" t="s">
         <v>2</v>
       </c>
-      <c r="C55">
-        <v>54</v>
+      <c r="C55" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.4">
@@ -1303,8 +1307,8 @@
       <c r="B56" t="s">
         <v>2</v>
       </c>
-      <c r="C56">
-        <v>55</v>
+      <c r="C56" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.4">
@@ -1314,8 +1318,8 @@
       <c r="B57" t="s">
         <v>2</v>
       </c>
-      <c r="C57">
-        <v>56</v>
+      <c r="C57" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.4">
@@ -1325,8 +1329,8 @@
       <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="C58">
-        <v>57</v>
+      <c r="C58" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.4">
@@ -1336,8 +1340,8 @@
       <c r="B59" t="s">
         <v>2</v>
       </c>
-      <c r="C59">
-        <v>58</v>
+      <c r="C59" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.4">
@@ -1347,8 +1351,8 @@
       <c r="B60" t="s">
         <v>2</v>
       </c>
-      <c r="C60">
-        <v>59</v>
+      <c r="C60" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.4">
@@ -1358,8 +1362,8 @@
       <c r="B61" t="s">
         <v>2</v>
       </c>
-      <c r="C61">
-        <v>60</v>
+      <c r="C61" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.4">
@@ -1369,8 +1373,8 @@
       <c r="B62" t="s">
         <v>2</v>
       </c>
-      <c r="C62">
-        <v>61</v>
+      <c r="C62" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.4">
@@ -1380,8 +1384,8 @@
       <c r="B63" t="s">
         <v>2</v>
       </c>
-      <c r="C63">
-        <v>62</v>
+      <c r="C63" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.4">
@@ -1391,8 +1395,8 @@
       <c r="B64" t="s">
         <v>2</v>
       </c>
-      <c r="C64">
-        <v>63</v>
+      <c r="C64" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.4">
@@ -1402,8 +1406,8 @@
       <c r="B65" t="s">
         <v>2</v>
       </c>
-      <c r="C65">
-        <v>64</v>
+      <c r="C65" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.4">
@@ -1413,8 +1417,8 @@
       <c r="B66" t="s">
         <v>2</v>
       </c>
-      <c r="C66">
-        <v>65</v>
+      <c r="C66" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.4">
@@ -1424,8 +1428,8 @@
       <c r="B67" t="s">
         <v>2</v>
       </c>
-      <c r="C67">
-        <v>66</v>
+      <c r="C67" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.4">
@@ -1435,8 +1439,8 @@
       <c r="B68" t="s">
         <v>2</v>
       </c>
-      <c r="C68">
-        <v>67</v>
+      <c r="C68" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.4">
@@ -1446,8 +1450,8 @@
       <c r="B69" t="s">
         <v>2</v>
       </c>
-      <c r="C69">
-        <v>68</v>
+      <c r="C69" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.4">
@@ -1457,8 +1461,8 @@
       <c r="B70" t="s">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>69</v>
+      <c r="C70" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.4">
@@ -1468,8 +1472,8 @@
       <c r="B71" t="s">
         <v>2</v>
       </c>
-      <c r="C71">
-        <v>70</v>
+      <c r="C71" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.4">
@@ -1479,8 +1483,8 @@
       <c r="B72" t="s">
         <v>2</v>
       </c>
-      <c r="C72">
-        <v>71</v>
+      <c r="C72" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.4">
@@ -1490,8 +1494,8 @@
       <c r="B73" t="s">
         <v>2</v>
       </c>
-      <c r="C73">
-        <v>72</v>
+      <c r="C73" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.4">
@@ -1501,8 +1505,8 @@
       <c r="B74" t="s">
         <v>2</v>
       </c>
-      <c r="C74">
-        <v>73</v>
+      <c r="C74" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.4">
@@ -1512,8 +1516,8 @@
       <c r="B75" t="s">
         <v>2</v>
       </c>
-      <c r="C75">
-        <v>74</v>
+      <c r="C75" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.4">
@@ -1523,8 +1527,8 @@
       <c r="B76" t="s">
         <v>2</v>
       </c>
-      <c r="C76">
-        <v>75</v>
+      <c r="C76" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.4">
@@ -1534,8 +1538,8 @@
       <c r="B77" t="s">
         <v>2</v>
       </c>
-      <c r="C77">
-        <v>76</v>
+      <c r="C77" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.4">
@@ -1545,8 +1549,8 @@
       <c r="B78" t="s">
         <v>2</v>
       </c>
-      <c r="C78">
-        <v>77</v>
+      <c r="C78" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.4">
@@ -1556,8 +1560,8 @@
       <c r="B79" t="s">
         <v>2</v>
       </c>
-      <c r="C79">
-        <v>78</v>
+      <c r="C79" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.4">
@@ -1567,8 +1571,8 @@
       <c r="B80" t="s">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>79</v>
+      <c r="C80" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.4">
@@ -1578,8 +1582,8 @@
       <c r="B81" t="s">
         <v>2</v>
       </c>
-      <c r="C81">
-        <v>80</v>
+      <c r="C81" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.4">
@@ -1589,8 +1593,8 @@
       <c r="B82" t="s">
         <v>2</v>
       </c>
-      <c r="C82">
-        <v>81</v>
+      <c r="C82" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.4">
@@ -1600,8 +1604,8 @@
       <c r="B83" t="s">
         <v>2</v>
       </c>
-      <c r="C83">
-        <v>82</v>
+      <c r="C83" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.4">
@@ -1611,8 +1615,8 @@
       <c r="B84" t="s">
         <v>2</v>
       </c>
-      <c r="C84">
-        <v>83</v>
+      <c r="C84" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.4">
@@ -1622,8 +1626,8 @@
       <c r="B85" t="s">
         <v>2</v>
       </c>
-      <c r="C85">
-        <v>84</v>
+      <c r="C85" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.4">
@@ -1633,8 +1637,8 @@
       <c r="B86" t="s">
         <v>2</v>
       </c>
-      <c r="C86">
-        <v>85</v>
+      <c r="C86" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.4">
@@ -1644,8 +1648,8 @@
       <c r="B87" t="s">
         <v>2</v>
       </c>
-      <c r="C87">
-        <v>86</v>
+      <c r="C87" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.4">
@@ -1655,8 +1659,8 @@
       <c r="B88" t="s">
         <v>2</v>
       </c>
-      <c r="C88">
-        <v>87</v>
+      <c r="C88" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.4">
@@ -1666,8 +1670,8 @@
       <c r="B89" t="s">
         <v>2</v>
       </c>
-      <c r="C89">
-        <v>88</v>
+      <c r="C89" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.4">
@@ -1677,8 +1681,8 @@
       <c r="B90" t="s">
         <v>2</v>
       </c>
-      <c r="C90">
-        <v>89</v>
+      <c r="C90" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.4">
@@ -1688,8 +1692,8 @@
       <c r="B91" t="s">
         <v>2</v>
       </c>
-      <c r="C91">
-        <v>90</v>
+      <c r="C91" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.4">
@@ -1699,8 +1703,8 @@
       <c r="B92" t="s">
         <v>2</v>
       </c>
-      <c r="C92">
-        <v>91</v>
+      <c r="C92" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.4">
@@ -1710,8 +1714,8 @@
       <c r="B93" t="s">
         <v>2</v>
       </c>
-      <c r="C93">
-        <v>92</v>
+      <c r="C93" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.4">
@@ -1721,8 +1725,8 @@
       <c r="B94" t="s">
         <v>2</v>
       </c>
-      <c r="C94">
-        <v>93</v>
+      <c r="C94" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.4">
@@ -1732,8 +1736,8 @@
       <c r="B95" t="s">
         <v>2</v>
       </c>
-      <c r="C95">
-        <v>94</v>
+      <c r="C95" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.4">
@@ -1743,8 +1747,8 @@
       <c r="B96" t="s">
         <v>2</v>
       </c>
-      <c r="C96">
-        <v>95</v>
+      <c r="C96" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.4">
@@ -1754,8 +1758,8 @@
       <c r="B97" t="s">
         <v>2</v>
       </c>
-      <c r="C97">
-        <v>96</v>
+      <c r="C97" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.4">
@@ -1765,8 +1769,8 @@
       <c r="B98" t="s">
         <v>2</v>
       </c>
-      <c r="C98">
-        <v>97</v>
+      <c r="C98" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.4">
@@ -1776,8 +1780,8 @@
       <c r="B99" t="s">
         <v>2</v>
       </c>
-      <c r="C99">
-        <v>98</v>
+      <c r="C99" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.4">
@@ -1787,8 +1791,8 @@
       <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C100">
-        <v>99</v>
+      <c r="C100" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.4">
@@ -1798,12 +1802,13 @@
       <c r="B101" t="s">
         <v>2</v>
       </c>
-      <c r="C101">
-        <v>100</v>
+      <c r="C101" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eigo.xlsx
+++ b/eigo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="130">
   <si>
     <t>問題</t>
     <rPh sb="0" eb="2">
@@ -351,6 +351,102 @@
   </si>
   <si>
     <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>i</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>u</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ka</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ko</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>si</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>su</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>se</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>so</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ta</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>te</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ni</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ne</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -689,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -725,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -736,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -747,7 +843,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -758,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
@@ -769,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -780,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -791,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -802,7 +898,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
@@ -813,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
@@ -824,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.4">
@@ -835,7 +931,7 @@
         <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
@@ -846,7 +942,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
@@ -857,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
@@ -868,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
@@ -879,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
@@ -890,7 +986,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
@@ -901,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
@@ -912,7 +1008,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
@@ -923,7 +1019,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
@@ -934,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
@@ -945,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
@@ -956,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
@@ -967,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
@@ -978,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">

--- a/eigo.xlsx
+++ b/eigo.xlsx
@@ -786,7 +786,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
